--- a/book1.xlsx
+++ b/book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Employee Payroll</t>
   </si>
@@ -140,15 +140,28 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Miss Pelap</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>Overtime Hours</t>
+  </si>
+  <si>
+    <t>Overtime Bonus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;FCFA&quot;_-;\-* #,##0\ &quot;FCFA&quot;_-;_-* &quot;-&quot;\ &quot;FCFA&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -190,11 +203,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire [0]" xfId="1" builtinId="7"/>
@@ -500,31 +515,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -537,346 +570,615 @@
       <c r="D3" s="1">
         <v>44927</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>15.9</v>
       </c>
       <c r="D4">
         <v>41</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
+        <f>IF(D4&gt;40,D4-40,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
         <f>C4*D4</f>
         <v>651.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="4">
+        <f>0.5*C4*E4</f>
+        <v>7.95</v>
+      </c>
+      <c r="H4" s="4">
+        <f>F4+G4</f>
+        <v>659.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="D5">
         <v>42</v>
       </c>
-      <c r="E5" s="3">
-        <f t="shared" ref="E5:E20" si="0">C5*D5</f>
+      <c r="E5">
+        <f t="shared" ref="E5:E20" si="0">IF(D5&gt;40,D5-40,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F20" si="1">C5*D5</f>
         <v>420</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G20" si="2">0.5*C5*E5</f>
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H20" si="3">F5+G5</f>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>22.1</v>
       </c>
       <c r="D6">
         <v>49</v>
       </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
         <v>1082.9000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="4">
+        <f t="shared" si="2"/>
+        <v>99.45</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="3"/>
+        <v>1182.3500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>19.100000000000001</v>
       </c>
       <c r="D7">
         <v>41</v>
       </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
         <v>783.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="4">
+        <f t="shared" si="2"/>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="3"/>
+        <v>792.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>6.9</v>
       </c>
       <c r="D8">
         <v>39</v>
       </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
         <v>269.10000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="3"/>
+        <v>269.10000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>14.2</v>
       </c>
       <c r="D9">
         <v>44</v>
       </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
         <v>624.79999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="4">
+        <f t="shared" si="2"/>
+        <v>28.4</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>653.19999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>18</v>
       </c>
       <c r="D10">
         <v>55</v>
       </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
         <v>990</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="4">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>17.5</v>
       </c>
       <c r="D11">
         <v>33</v>
       </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
         <v>577.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="3"/>
+        <v>577.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>14.7</v>
       </c>
       <c r="D12">
         <v>29</v>
       </c>
-      <c r="E12" s="3">
-        <f t="shared" si="0"/>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
         <v>426.29999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="3"/>
+        <v>426.29999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>13.9</v>
       </c>
       <c r="D13">
         <v>40</v>
       </c>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
         <v>556</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="3"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>11.2</v>
       </c>
       <c r="D14">
         <v>40</v>
       </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
         <v>448</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="4">
+        <f>0.5*C14*E14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="3"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>10.1</v>
       </c>
       <c r="D15">
         <v>40</v>
       </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
         <v>404</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="3"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>9</v>
       </c>
       <c r="D16">
         <v>42</v>
       </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
         <v>378</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="4">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="3"/>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>8.44</v>
       </c>
       <c r="D17">
         <v>40</v>
       </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
         <v>337.59999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="3"/>
+        <v>337.59999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>14.2</v>
       </c>
       <c r="D18">
         <v>40</v>
       </c>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
         <v>568</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="3"/>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>45</v>
       </c>
       <c r="D19">
         <v>41</v>
       </c>
-      <c r="E19" s="3">
-        <f t="shared" si="0"/>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
         <v>1845</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="3"/>
+        <v>1867.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>30</v>
       </c>
       <c r="D20">
         <v>39</v>
       </c>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="1"/>
         <v>1170</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="3"/>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <f>MAX(C4:C20)</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
+        <f>MAX(D4:D20)</f>
+        <v>55</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4">
+        <f>MAX(F4:F20)</f>
+        <v>1845</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" ref="G22:H22" si="4">MAX(G4:G20)</f>
+        <v>135</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="4"/>
+        <v>1867.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <f>MIN(C4:C20)</f>
         <v>6.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="2">
+        <f>MIN(D4:D20)</f>
+        <v>29</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4">
+        <f>MIN(F4:F20)</f>
+        <v>269.10000000000002</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" ref="G23:H23" si="5">MIN(G4:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="5"/>
+        <v>269.10000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <f>AVERAGE(C4:C20)</f>
         <v>16.484705882352941</v>
       </c>
-      <c r="E24" s="4">
-        <v>0.55763888888888891</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <f>AVERAGE(D4:D20)</f>
+        <v>40.882352941176471</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4">
+        <f>AVERAGE(F4:F20)</f>
+        <v>678.36470588235295</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" ref="G24:H24" si="6">AVERAGE(G4:G20)</f>
+        <v>18.932352941176472</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="6"/>
+        <v>697.29705882352937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
+      </c>
+      <c r="D25">
+        <f>SUM(D4:D20)</f>
+        <v>695</v>
+      </c>
+      <c r="F25" s="4">
+        <f>SUM(F4:F20)</f>
+        <v>11532.2</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" ref="G25:H25" si="7">SUM(G4:G20)</f>
+        <v>321.85000000000002</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="7"/>
+        <v>11854.05</v>
       </c>
     </row>
   </sheetData>

--- a/book1.xlsx
+++ b/book1.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="payroll" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Employee Payroll</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Overtime Bonus</t>
+  </si>
+  <si>
+    <t>Janu Pay</t>
   </si>
 </sst>
 </file>
@@ -160,8 +163,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;FCFA&quot;_-;\-* #,##0\ &quot;FCFA&quot;_-;_-* &quot;-&quot;\ &quot;FCFA&quot;_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -179,12 +182,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,16 +233,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire [0]" xfId="1" builtinId="7"/>
@@ -515,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="R3" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,13 +575,18 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="4" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="18" width="13" customWidth="1"/>
+    <col min="19" max="23" width="16.42578125" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" customWidth="1"/>
+    <col min="25" max="25" width="13" customWidth="1"/>
+    <col min="26" max="27" width="12.85546875" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" customWidth="1"/>
+    <col min="30" max="30" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,24 +594,31 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+      <c r="X2" t="s">
         <v>41</v>
       </c>
+      <c r="AD2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -567,600 +628,2234 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>44927</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="5">
+        <f>D3+7</f>
+        <v>44934</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:H3" si="0">E3+7</f>
+        <v>44941</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>44948</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
+        <v>44955</v>
+      </c>
+      <c r="I3" s="7">
+        <v>44927</v>
+      </c>
+      <c r="J3" s="7">
+        <f>I3+7</f>
+        <v>44934</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" ref="K3:M3" si="1">J3+7</f>
+        <v>44941</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" si="1"/>
+        <v>44948</v>
+      </c>
+      <c r="M3" s="7">
+        <f t="shared" si="1"/>
+        <v>44955</v>
+      </c>
+      <c r="N3" s="11">
+        <v>44927</v>
+      </c>
+      <c r="O3" s="11">
+        <f>N3+7</f>
+        <v>44934</v>
+      </c>
+      <c r="P3" s="11">
+        <f t="shared" ref="P3:R3" si="2">O3+7</f>
+        <v>44941</v>
+      </c>
+      <c r="Q3" s="11">
+        <f t="shared" si="2"/>
+        <v>44948</v>
+      </c>
+      <c r="R3" s="11">
+        <f t="shared" si="2"/>
+        <v>44955</v>
+      </c>
+      <c r="S3" s="4">
+        <v>44927</v>
+      </c>
+      <c r="T3" s="4">
+        <f>S3+7</f>
+        <v>44934</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" ref="U3:W3" si="3">T3+7</f>
+        <v>44941</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" si="3"/>
+        <v>44948</v>
+      </c>
+      <c r="W3" s="4">
+        <f t="shared" si="3"/>
+        <v>44955</v>
+      </c>
+      <c r="X3" s="9">
+        <v>44927</v>
+      </c>
+      <c r="Y3" s="9">
+        <f>X3+7</f>
+        <v>44934</v>
+      </c>
+      <c r="Z3" s="9">
+        <f t="shared" ref="Z3:AB3" si="4">Y3+7</f>
+        <v>44941</v>
+      </c>
+      <c r="AA3" s="9">
+        <f t="shared" si="4"/>
+        <v>44948</v>
+      </c>
+      <c r="AB3" s="9">
+        <f t="shared" si="4"/>
+        <v>44955</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>15.9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>41</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
+        <v>42</v>
+      </c>
+      <c r="F4" s="6">
+        <v>39</v>
+      </c>
+      <c r="G4" s="6">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6">
+        <v>46</v>
+      </c>
+      <c r="I4" s="8">
         <f>IF(D4&gt;40,D4-40,0)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="4">
-        <f>C4*D4</f>
+      <c r="J4" s="8">
+        <f>IF(E4&gt;40,E4-40,0)</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" ref="J4:M19" si="5">IF(F4&gt;40,F4-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N4" s="12">
+        <f>$C4*D4</f>
         <v>651.9</v>
       </c>
-      <c r="G4" s="4">
-        <f>0.5*C4*E4</f>
+      <c r="O4" s="12">
+        <f t="shared" ref="O4:R19" si="6">$C4*E4</f>
+        <v>667.80000000000007</v>
+      </c>
+      <c r="P4" s="12">
+        <f t="shared" si="6"/>
+        <v>620.1</v>
+      </c>
+      <c r="Q4" s="12">
+        <f t="shared" si="6"/>
+        <v>477</v>
+      </c>
+      <c r="R4" s="12">
+        <f>$C4*H4</f>
+        <v>731.4</v>
+      </c>
+      <c r="S4" s="13">
+        <f>0.5*$C4*I4</f>
         <v>7.95</v>
       </c>
-      <c r="H4" s="4">
-        <f>F4+G4</f>
+      <c r="T4" s="13">
+        <f t="shared" ref="T4:W19" si="7">0.5*$C4*J4</f>
+        <v>15.9</v>
+      </c>
+      <c r="U4" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="13">
+        <f t="shared" si="7"/>
+        <v>47.7</v>
+      </c>
+      <c r="X4" s="10">
+        <f>N4+S4</f>
         <v>659.85</v>
       </c>
+      <c r="Y4" s="10">
+        <f t="shared" ref="Y4:AB19" si="8">O4+T4</f>
+        <v>683.7</v>
+      </c>
+      <c r="Z4" s="10">
+        <f t="shared" si="8"/>
+        <v>620.1</v>
+      </c>
+      <c r="AA4" s="10">
+        <f t="shared" si="8"/>
+        <v>477</v>
+      </c>
+      <c r="AB4" s="10">
+        <f t="shared" si="8"/>
+        <v>779.1</v>
+      </c>
+      <c r="AD4" s="14">
+        <f>SUM(X4:AB4)</f>
+        <v>3219.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>42</v>
       </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E20" si="0">IF(D5&gt;40,D5-40,0)</f>
+      <c r="E5" s="6">
+        <v>41</v>
+      </c>
+      <c r="F5" s="6">
+        <v>40</v>
+      </c>
+      <c r="G5" s="6">
+        <v>38</v>
+      </c>
+      <c r="H5" s="6">
+        <v>44</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" ref="I5:I20" si="9">IF(D5&gt;40,D5-40,0)</f>
         <v>2</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" ref="F5:F20" si="1">C5*D5</f>
+      <c r="J5" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="12">
+        <f t="shared" ref="N5:N20" si="10">$C5*D5</f>
         <v>420</v>
       </c>
-      <c r="G5" s="4">
-        <f t="shared" ref="G5:G20" si="2">0.5*C5*E5</f>
+      <c r="O5" s="12">
+        <f t="shared" si="6"/>
+        <v>410</v>
+      </c>
+      <c r="P5" s="12">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="Q5" s="12">
+        <f t="shared" si="6"/>
+        <v>380</v>
+      </c>
+      <c r="R5" s="12">
+        <f t="shared" si="6"/>
+        <v>440</v>
+      </c>
+      <c r="S5" s="13">
+        <f t="shared" ref="S5:S20" si="11">0.5*$C5*I5</f>
         <v>10</v>
       </c>
-      <c r="H5" s="4">
-        <f t="shared" ref="H5:H20" si="3">F5+G5</f>
+      <c r="T5" s="13">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="U5" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="13">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="X5" s="10">
+        <f t="shared" ref="X5:X20" si="12">N5+S5</f>
         <v>430</v>
       </c>
+      <c r="Y5" s="10">
+        <f t="shared" si="8"/>
+        <v>415</v>
+      </c>
+      <c r="Z5" s="10">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="AA5" s="10">
+        <f t="shared" si="8"/>
+        <v>380</v>
+      </c>
+      <c r="AB5" s="10">
+        <f t="shared" si="8"/>
+        <v>460</v>
+      </c>
+      <c r="AD5" s="14">
+        <f t="shared" ref="AD5:AD20" si="13">SUM(X5:AB5)</f>
+        <v>2085</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>22.1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>49</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
+      <c r="E6" s="6">
+        <v>40</v>
+      </c>
+      <c r="F6" s="6">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6">
+        <v>18</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" si="1"/>
+      <c r="J6" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <f t="shared" si="10"/>
         <v>1082.9000000000001</v>
       </c>
-      <c r="G6" s="4">
-        <f t="shared" si="2"/>
+      <c r="O6" s="12">
+        <f t="shared" si="6"/>
+        <v>884</v>
+      </c>
+      <c r="P6" s="12">
+        <f t="shared" si="6"/>
+        <v>729.30000000000007</v>
+      </c>
+      <c r="Q6" s="12">
+        <f t="shared" si="6"/>
+        <v>442</v>
+      </c>
+      <c r="R6" s="12">
+        <f t="shared" si="6"/>
+        <v>397.8</v>
+      </c>
+      <c r="S6" s="13">
+        <f t="shared" si="11"/>
         <v>99.45</v>
       </c>
-      <c r="H6" s="4">
-        <f t="shared" si="3"/>
+      <c r="T6" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="10">
+        <f t="shared" si="12"/>
         <v>1182.3500000000001</v>
       </c>
+      <c r="Y6" s="10">
+        <f t="shared" si="8"/>
+        <v>884</v>
+      </c>
+      <c r="Z6" s="10">
+        <f t="shared" si="8"/>
+        <v>729.30000000000007</v>
+      </c>
+      <c r="AA6" s="10">
+        <f t="shared" si="8"/>
+        <v>442</v>
+      </c>
+      <c r="AB6" s="10">
+        <f t="shared" si="8"/>
+        <v>397.8</v>
+      </c>
+      <c r="AD6" s="14">
+        <f t="shared" si="13"/>
+        <v>3635.4500000000007</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>19.100000000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>41</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
+      <c r="E7" s="6">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6">
+        <v>47</v>
+      </c>
+      <c r="G7" s="6">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6">
+        <v>39</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="1"/>
+      <c r="J7" s="8">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <f t="shared" si="10"/>
         <v>783.1</v>
       </c>
-      <c r="G7" s="4">
-        <f t="shared" si="2"/>
+      <c r="O7" s="12">
+        <f t="shared" si="6"/>
+        <v>955.00000000000011</v>
+      </c>
+      <c r="P7" s="12">
+        <f t="shared" si="6"/>
+        <v>897.7</v>
+      </c>
+      <c r="Q7" s="12">
+        <f t="shared" si="6"/>
+        <v>573</v>
+      </c>
+      <c r="R7" s="12">
+        <f t="shared" si="6"/>
+        <v>744.90000000000009</v>
+      </c>
+      <c r="S7" s="13">
+        <f t="shared" si="11"/>
         <v>9.5500000000000007</v>
       </c>
-      <c r="H7" s="4">
-        <f t="shared" si="3"/>
+      <c r="T7" s="13">
+        <f t="shared" si="7"/>
+        <v>95.5</v>
+      </c>
+      <c r="U7" s="13">
+        <f t="shared" si="7"/>
+        <v>66.850000000000009</v>
+      </c>
+      <c r="V7" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="10">
+        <f t="shared" si="12"/>
         <v>792.65</v>
       </c>
+      <c r="Y7" s="10">
+        <f t="shared" si="8"/>
+        <v>1050.5</v>
+      </c>
+      <c r="Z7" s="10">
+        <f t="shared" si="8"/>
+        <v>964.55000000000007</v>
+      </c>
+      <c r="AA7" s="10">
+        <f t="shared" si="8"/>
+        <v>573</v>
+      </c>
+      <c r="AB7" s="10">
+        <f t="shared" si="8"/>
+        <v>744.90000000000009</v>
+      </c>
+      <c r="AD7" s="14">
+        <f t="shared" si="13"/>
+        <v>4125.6000000000004</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>6.9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>39</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="1"/>
+      <c r="E8" s="6">
+        <v>52</v>
+      </c>
+      <c r="F8" s="6">
+        <v>42</v>
+      </c>
+      <c r="G8" s="6">
+        <v>40</v>
+      </c>
+      <c r="H8" s="6">
+        <v>40</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <f t="shared" si="10"/>
         <v>269.10000000000002</v>
       </c>
-      <c r="G8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="3"/>
+      <c r="O8" s="12">
+        <f t="shared" si="6"/>
+        <v>358.8</v>
+      </c>
+      <c r="P8" s="12">
+        <f t="shared" si="6"/>
+        <v>289.8</v>
+      </c>
+      <c r="Q8" s="12">
+        <f t="shared" si="6"/>
+        <v>276</v>
+      </c>
+      <c r="R8" s="12">
+        <f t="shared" si="6"/>
+        <v>276</v>
+      </c>
+      <c r="S8" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
+        <f t="shared" si="7"/>
+        <v>41.400000000000006</v>
+      </c>
+      <c r="U8" s="13">
+        <f t="shared" si="7"/>
+        <v>6.9</v>
+      </c>
+      <c r="V8" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="10">
+        <f t="shared" si="12"/>
         <v>269.10000000000002</v>
       </c>
+      <c r="Y8" s="10">
+        <f t="shared" si="8"/>
+        <v>400.20000000000005</v>
+      </c>
+      <c r="Z8" s="10">
+        <f t="shared" si="8"/>
+        <v>296.7</v>
+      </c>
+      <c r="AA8" s="10">
+        <f t="shared" si="8"/>
+        <v>276</v>
+      </c>
+      <c r="AB8" s="10">
+        <f t="shared" si="8"/>
+        <v>276</v>
+      </c>
+      <c r="AD8" s="14">
+        <f t="shared" si="13"/>
+        <v>1518</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>14.2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>44</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
+      <c r="E9" s="6">
+        <v>51</v>
+      </c>
+      <c r="F9" s="6">
+        <v>42</v>
+      </c>
+      <c r="G9" s="6">
+        <v>40</v>
+      </c>
+      <c r="H9" s="6">
+        <v>20</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="1"/>
+      <c r="J9" s="8">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" si="10"/>
         <v>624.79999999999995</v>
       </c>
-      <c r="G9" s="4">
-        <f t="shared" si="2"/>
+      <c r="O9" s="12">
+        <f t="shared" si="6"/>
+        <v>724.19999999999993</v>
+      </c>
+      <c r="P9" s="12">
+        <f t="shared" si="6"/>
+        <v>596.4</v>
+      </c>
+      <c r="Q9" s="12">
+        <f t="shared" si="6"/>
+        <v>568</v>
+      </c>
+      <c r="R9" s="12">
+        <f t="shared" si="6"/>
+        <v>284</v>
+      </c>
+      <c r="S9" s="13">
+        <f t="shared" si="11"/>
         <v>28.4</v>
       </c>
-      <c r="H9" s="4">
-        <f t="shared" si="3"/>
+      <c r="T9" s="13">
+        <f t="shared" si="7"/>
+        <v>78.099999999999994</v>
+      </c>
+      <c r="U9" s="13">
+        <f t="shared" si="7"/>
+        <v>14.2</v>
+      </c>
+      <c r="V9" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="10">
+        <f t="shared" si="12"/>
         <v>653.19999999999993</v>
       </c>
+      <c r="Y9" s="10">
+        <f t="shared" si="8"/>
+        <v>802.3</v>
+      </c>
+      <c r="Z9" s="10">
+        <f t="shared" si="8"/>
+        <v>610.6</v>
+      </c>
+      <c r="AA9" s="10">
+        <f t="shared" si="8"/>
+        <v>568</v>
+      </c>
+      <c r="AB9" s="10">
+        <f t="shared" si="8"/>
+        <v>284</v>
+      </c>
+      <c r="AD9" s="14">
+        <f t="shared" si="13"/>
+        <v>2918.1</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>55</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
+      <c r="E10" s="6">
+        <v>60</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45</v>
+      </c>
+      <c r="G10" s="6">
+        <v>40</v>
+      </c>
+      <c r="H10" s="6">
+        <v>49</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" si="1"/>
+      <c r="J10" s="8">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="10"/>
         <v>990</v>
       </c>
-      <c r="G10" s="4">
-        <f t="shared" si="2"/>
+      <c r="O10" s="12">
+        <f t="shared" si="6"/>
+        <v>1080</v>
+      </c>
+      <c r="P10" s="12">
+        <f t="shared" si="6"/>
+        <v>810</v>
+      </c>
+      <c r="Q10" s="12">
+        <f t="shared" si="6"/>
+        <v>720</v>
+      </c>
+      <c r="R10" s="12">
+        <f t="shared" si="6"/>
+        <v>882</v>
+      </c>
+      <c r="S10" s="13">
+        <f t="shared" si="11"/>
         <v>135</v>
       </c>
-      <c r="H10" s="4">
-        <f t="shared" si="3"/>
+      <c r="T10" s="13">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="U10" s="13">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="V10" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="13">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="X10" s="10">
+        <f t="shared" si="12"/>
         <v>1125</v>
       </c>
+      <c r="Y10" s="10">
+        <f t="shared" si="8"/>
+        <v>1260</v>
+      </c>
+      <c r="Z10" s="10">
+        <f t="shared" si="8"/>
+        <v>855</v>
+      </c>
+      <c r="AA10" s="10">
+        <f t="shared" si="8"/>
+        <v>720</v>
+      </c>
+      <c r="AB10" s="10">
+        <f t="shared" si="8"/>
+        <v>963</v>
+      </c>
+      <c r="AD10" s="14">
+        <f t="shared" si="13"/>
+        <v>4923</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>17.5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>33</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="1"/>
+      <c r="E11" s="6">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6">
+        <v>54</v>
+      </c>
+      <c r="G11" s="6">
+        <v>40</v>
+      </c>
+      <c r="H11" s="6">
+        <v>20</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" si="10"/>
         <v>577.5</v>
       </c>
-      <c r="G11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="3"/>
+      <c r="O11" s="12">
+        <f t="shared" si="6"/>
+        <v>385</v>
+      </c>
+      <c r="P11" s="12">
+        <f t="shared" si="6"/>
+        <v>945</v>
+      </c>
+      <c r="Q11" s="12">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="R11" s="12">
+        <f t="shared" si="6"/>
+        <v>350</v>
+      </c>
+      <c r="S11" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="13">
+        <f t="shared" si="7"/>
+        <v>122.5</v>
+      </c>
+      <c r="V11" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="10">
+        <f t="shared" si="12"/>
         <v>577.5</v>
       </c>
+      <c r="Y11" s="10">
+        <f t="shared" si="8"/>
+        <v>385</v>
+      </c>
+      <c r="Z11" s="10">
+        <f t="shared" si="8"/>
+        <v>1067.5</v>
+      </c>
+      <c r="AA11" s="10">
+        <f t="shared" si="8"/>
+        <v>700</v>
+      </c>
+      <c r="AB11" s="10">
+        <f t="shared" si="8"/>
+        <v>350</v>
+      </c>
+      <c r="AD11" s="14">
+        <f t="shared" si="13"/>
+        <v>3080</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>14.7</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>29</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="1"/>
+      <c r="E12" s="6">
+        <v>40</v>
+      </c>
+      <c r="F12" s="6">
+        <v>42</v>
+      </c>
+      <c r="G12" s="6">
+        <v>40</v>
+      </c>
+      <c r="H12" s="6">
+        <v>40</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="10"/>
         <v>426.29999999999995</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="3"/>
+      <c r="O12" s="12">
+        <f t="shared" si="6"/>
+        <v>588</v>
+      </c>
+      <c r="P12" s="12">
+        <f t="shared" si="6"/>
+        <v>617.4</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" si="6"/>
+        <v>588</v>
+      </c>
+      <c r="R12" s="12">
+        <f t="shared" si="6"/>
+        <v>588</v>
+      </c>
+      <c r="S12" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="13">
+        <f t="shared" si="7"/>
+        <v>14.7</v>
+      </c>
+      <c r="V12" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="10">
+        <f t="shared" si="12"/>
         <v>426.29999999999995</v>
       </c>
+      <c r="Y12" s="10">
+        <f t="shared" si="8"/>
+        <v>588</v>
+      </c>
+      <c r="Z12" s="10">
+        <f t="shared" si="8"/>
+        <v>632.1</v>
+      </c>
+      <c r="AA12" s="10">
+        <f t="shared" si="8"/>
+        <v>588</v>
+      </c>
+      <c r="AB12" s="10">
+        <f t="shared" si="8"/>
+        <v>588</v>
+      </c>
+      <c r="AD12" s="14">
+        <f t="shared" si="13"/>
+        <v>2822.4</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>13.9</v>
       </c>
-      <c r="D13">
-        <v>40</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="1"/>
+      <c r="D13" s="6">
+        <v>40</v>
+      </c>
+      <c r="E13" s="6">
+        <v>40</v>
+      </c>
+      <c r="F13" s="6">
+        <v>42</v>
+      </c>
+      <c r="G13" s="6">
+        <v>40</v>
+      </c>
+      <c r="H13" s="6">
+        <v>40</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <f>$C13*D13</f>
         <v>556</v>
       </c>
-      <c r="G13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="3"/>
+      <c r="O13" s="12">
+        <f t="shared" si="6"/>
         <v>556</v>
       </c>
+      <c r="P13" s="12">
+        <f t="shared" si="6"/>
+        <v>583.80000000000007</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" si="6"/>
+        <v>556</v>
+      </c>
+      <c r="R13" s="12">
+        <f>$C13*H13</f>
+        <v>556</v>
+      </c>
+      <c r="S13" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="13">
+        <f t="shared" si="7"/>
+        <v>13.9</v>
+      </c>
+      <c r="V13" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="10">
+        <f t="shared" si="12"/>
+        <v>556</v>
+      </c>
+      <c r="Y13" s="10">
+        <f t="shared" si="8"/>
+        <v>556</v>
+      </c>
+      <c r="Z13" s="10">
+        <f t="shared" si="8"/>
+        <v>597.70000000000005</v>
+      </c>
+      <c r="AA13" s="10">
+        <f t="shared" si="8"/>
+        <v>556</v>
+      </c>
+      <c r="AB13" s="10">
+        <f t="shared" si="8"/>
+        <v>556</v>
+      </c>
+      <c r="AD13" s="14">
+        <f t="shared" si="13"/>
+        <v>2821.7</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>11.2</v>
       </c>
-      <c r="D14">
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="1"/>
+      <c r="D14" s="6">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6">
+        <v>40</v>
+      </c>
+      <c r="F14" s="6">
+        <v>42</v>
+      </c>
+      <c r="G14" s="6">
+        <v>39</v>
+      </c>
+      <c r="H14" s="6">
+        <v>40</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="10"/>
         <v>448</v>
       </c>
-      <c r="G14" s="4">
-        <f>0.5*C14*E14</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="3"/>
+      <c r="O14" s="12">
+        <f t="shared" si="6"/>
         <v>448</v>
       </c>
+      <c r="P14" s="12">
+        <f t="shared" si="6"/>
+        <v>470.4</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="6"/>
+        <v>436.79999999999995</v>
+      </c>
+      <c r="R14" s="12">
+        <f t="shared" si="6"/>
+        <v>448</v>
+      </c>
+      <c r="S14" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="13">
+        <f t="shared" si="7"/>
+        <v>11.2</v>
+      </c>
+      <c r="V14" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="10">
+        <f t="shared" si="12"/>
+        <v>448</v>
+      </c>
+      <c r="Y14" s="10">
+        <f t="shared" si="8"/>
+        <v>448</v>
+      </c>
+      <c r="Z14" s="10">
+        <f t="shared" si="8"/>
+        <v>481.59999999999997</v>
+      </c>
+      <c r="AA14" s="10">
+        <f t="shared" si="8"/>
+        <v>436.79999999999995</v>
+      </c>
+      <c r="AB14" s="10">
+        <f t="shared" si="8"/>
+        <v>448</v>
+      </c>
+      <c r="AD14" s="14">
+        <f t="shared" si="13"/>
+        <v>2262.3999999999996</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>10.1</v>
       </c>
-      <c r="D15">
-        <v>40</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="1"/>
+      <c r="D15" s="6">
+        <v>40</v>
+      </c>
+      <c r="E15" s="6">
+        <v>40</v>
+      </c>
+      <c r="F15" s="6">
+        <v>41</v>
+      </c>
+      <c r="G15" s="6">
+        <v>42</v>
+      </c>
+      <c r="H15" s="6">
+        <v>40</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="10"/>
         <v>404</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="3"/>
+      <c r="O15" s="12">
+        <f t="shared" si="6"/>
         <v>404</v>
       </c>
+      <c r="P15" s="12">
+        <f t="shared" si="6"/>
+        <v>414.09999999999997</v>
+      </c>
+      <c r="Q15" s="12">
+        <f t="shared" si="6"/>
+        <v>424.2</v>
+      </c>
+      <c r="R15" s="12">
+        <f t="shared" si="6"/>
+        <v>404</v>
+      </c>
+      <c r="S15" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <f t="shared" si="7"/>
+        <v>5.05</v>
+      </c>
+      <c r="V15" s="13">
+        <f t="shared" si="7"/>
+        <v>10.1</v>
+      </c>
+      <c r="W15" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="10">
+        <f t="shared" si="12"/>
+        <v>404</v>
+      </c>
+      <c r="Y15" s="10">
+        <f t="shared" si="8"/>
+        <v>404</v>
+      </c>
+      <c r="Z15" s="10">
+        <f t="shared" si="8"/>
+        <v>419.15</v>
+      </c>
+      <c r="AA15" s="10">
+        <f t="shared" si="8"/>
+        <v>434.3</v>
+      </c>
+      <c r="AB15" s="10">
+        <f t="shared" si="8"/>
+        <v>404</v>
+      </c>
+      <c r="AD15" s="14">
+        <f t="shared" si="13"/>
+        <v>2065.4499999999998</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>9</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>42</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
+      <c r="E16" s="6">
+        <v>42</v>
+      </c>
+      <c r="F16" s="6">
+        <v>39</v>
+      </c>
+      <c r="G16" s="6">
+        <v>42</v>
+      </c>
+      <c r="H16" s="6">
+        <v>40</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="F16" s="4">
-        <f t="shared" si="1"/>
+      <c r="J16" s="8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
-      <c r="G16" s="4">
-        <f t="shared" si="2"/>
+      <c r="O16" s="12">
+        <f t="shared" si="6"/>
+        <v>378</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" si="6"/>
+        <v>351</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" si="6"/>
+        <v>378</v>
+      </c>
+      <c r="R16" s="12">
+        <f t="shared" si="6"/>
+        <v>360</v>
+      </c>
+      <c r="S16" s="13">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="H16" s="4">
-        <f t="shared" si="3"/>
+      <c r="T16" s="13">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="U16" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="13">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="W16" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="10">
+        <f t="shared" si="12"/>
         <v>387</v>
       </c>
+      <c r="Y16" s="10">
+        <f t="shared" si="8"/>
+        <v>387</v>
+      </c>
+      <c r="Z16" s="10">
+        <f t="shared" si="8"/>
+        <v>351</v>
+      </c>
+      <c r="AA16" s="10">
+        <f t="shared" si="8"/>
+        <v>387</v>
+      </c>
+      <c r="AB16" s="10">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
+      <c r="AD16" s="14">
+        <f t="shared" si="13"/>
+        <v>1872</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>8.44</v>
       </c>
-      <c r="D17">
-        <v>40</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="1"/>
+      <c r="D17" s="6">
+        <v>40</v>
+      </c>
+      <c r="E17" s="6">
+        <v>43</v>
+      </c>
+      <c r="F17" s="6">
+        <v>39</v>
+      </c>
+      <c r="G17" s="6">
+        <v>41</v>
+      </c>
+      <c r="H17" s="6">
+        <v>40</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="10"/>
         <v>337.59999999999997</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="3"/>
+      <c r="O17" s="12">
+        <f t="shared" si="6"/>
+        <v>362.91999999999996</v>
+      </c>
+      <c r="P17" s="12">
+        <f t="shared" si="6"/>
+        <v>329.15999999999997</v>
+      </c>
+      <c r="Q17" s="12">
+        <f t="shared" si="6"/>
+        <v>346.03999999999996</v>
+      </c>
+      <c r="R17" s="12">
+        <f t="shared" si="6"/>
         <v>337.59999999999997</v>
       </c>
+      <c r="S17" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="13">
+        <f t="shared" si="7"/>
+        <v>12.66</v>
+      </c>
+      <c r="U17" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="13">
+        <f t="shared" si="7"/>
+        <v>4.22</v>
+      </c>
+      <c r="W17" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="10">
+        <f t="shared" si="12"/>
+        <v>337.59999999999997</v>
+      </c>
+      <c r="Y17" s="10">
+        <f t="shared" si="8"/>
+        <v>375.58</v>
+      </c>
+      <c r="Z17" s="10">
+        <f t="shared" si="8"/>
+        <v>329.15999999999997</v>
+      </c>
+      <c r="AA17" s="10">
+        <f t="shared" si="8"/>
+        <v>350.26</v>
+      </c>
+      <c r="AB17" s="10">
+        <f t="shared" si="8"/>
+        <v>337.59999999999997</v>
+      </c>
+      <c r="AD17" s="14">
+        <f t="shared" si="13"/>
+        <v>1730.1999999999998</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>14.2</v>
       </c>
-      <c r="D18">
-        <v>40</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="1"/>
+      <c r="D18" s="6">
+        <v>40</v>
+      </c>
+      <c r="E18" s="6">
+        <v>42</v>
+      </c>
+      <c r="F18" s="6">
+        <v>39</v>
+      </c>
+      <c r="G18" s="6">
+        <v>40</v>
+      </c>
+      <c r="H18" s="6">
+        <v>40</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="10"/>
         <v>568</v>
       </c>
-      <c r="G18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="3"/>
+      <c r="O18" s="12">
+        <f t="shared" si="6"/>
+        <v>596.4</v>
+      </c>
+      <c r="P18" s="12">
+        <f t="shared" si="6"/>
+        <v>553.79999999999995</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" si="6"/>
         <v>568</v>
       </c>
+      <c r="R18" s="12">
+        <f t="shared" si="6"/>
+        <v>568</v>
+      </c>
+      <c r="S18" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="13">
+        <f t="shared" si="7"/>
+        <v>14.2</v>
+      </c>
+      <c r="U18" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="10">
+        <f t="shared" si="12"/>
+        <v>568</v>
+      </c>
+      <c r="Y18" s="10">
+        <f t="shared" si="8"/>
+        <v>610.6</v>
+      </c>
+      <c r="Z18" s="10">
+        <f t="shared" si="8"/>
+        <v>553.79999999999995</v>
+      </c>
+      <c r="AA18" s="10">
+        <f t="shared" si="8"/>
+        <v>568</v>
+      </c>
+      <c r="AB18" s="10">
+        <f t="shared" si="8"/>
+        <v>568</v>
+      </c>
+      <c r="AD18" s="14">
+        <f t="shared" si="13"/>
+        <v>2868.3999999999996</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>45</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>41</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
+      <c r="E19" s="6">
+        <v>42</v>
+      </c>
+      <c r="F19" s="6">
+        <v>40</v>
+      </c>
+      <c r="G19" s="6">
+        <v>28</v>
+      </c>
+      <c r="H19" s="6">
+        <v>40</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="F19" s="4">
-        <f t="shared" si="1"/>
+      <c r="J19" s="8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="12">
+        <f>$C19*D19</f>
         <v>1845</v>
       </c>
-      <c r="G19" s="4">
-        <f t="shared" si="2"/>
+      <c r="O19" s="12">
+        <f t="shared" si="6"/>
+        <v>1890</v>
+      </c>
+      <c r="P19" s="12">
+        <f t="shared" si="6"/>
+        <v>1800</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" si="6"/>
+        <v>1260</v>
+      </c>
+      <c r="R19" s="12">
+        <f>$C19*H19</f>
+        <v>1800</v>
+      </c>
+      <c r="S19" s="13">
+        <f t="shared" si="11"/>
         <v>22.5</v>
       </c>
-      <c r="H19" s="4">
-        <f t="shared" si="3"/>
+      <c r="T19" s="13">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="U19" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="10">
+        <f t="shared" si="12"/>
         <v>1867.5</v>
       </c>
+      <c r="Y19" s="10">
+        <f t="shared" si="8"/>
+        <v>1935</v>
+      </c>
+      <c r="Z19" s="10">
+        <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="AA19" s="10">
+        <f t="shared" si="8"/>
+        <v>1260</v>
+      </c>
+      <c r="AB19" s="10">
+        <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="AD19" s="14">
+        <f t="shared" si="13"/>
+        <v>8662.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>30</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>39</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="1"/>
+      <c r="E20" s="6">
+        <v>80</v>
+      </c>
+      <c r="F20" s="6">
+        <v>40</v>
+      </c>
+      <c r="G20" s="6">
+        <v>20</v>
+      </c>
+      <c r="H20" s="6">
+        <v>40</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" ref="J20" si="14">IF(E20&gt;40,E20-40,0)</f>
+        <v>40</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" ref="K20" si="15">IF(F20&gt;40,F20-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" ref="L20:M20" si="16">IF(G20&gt;40,G20-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="12">
+        <f t="shared" si="10"/>
         <v>1170</v>
       </c>
-      <c r="G20" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="3"/>
+      <c r="O20" s="12">
+        <f t="shared" ref="O20" si="17">$C20*E20</f>
+        <v>2400</v>
+      </c>
+      <c r="P20" s="12">
+        <f t="shared" ref="P20" si="18">$C20*F20</f>
+        <v>1200</v>
+      </c>
+      <c r="Q20" s="12">
+        <f t="shared" ref="Q20:R20" si="19">$C20*G20</f>
+        <v>600</v>
+      </c>
+      <c r="R20" s="12">
+        <f t="shared" si="19"/>
+        <v>1200</v>
+      </c>
+      <c r="S20" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
+        <f t="shared" ref="T20" si="20">0.5*$C20*J20</f>
+        <v>600</v>
+      </c>
+      <c r="U20" s="13">
+        <f t="shared" ref="U20" si="21">0.5*$C20*K20</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="13">
+        <f t="shared" ref="V20" si="22">0.5*$C20*L20</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13">
+        <f t="shared" ref="W20" si="23">0.5*$C20*M20</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="10">
+        <f t="shared" si="12"/>
         <v>1170</v>
       </c>
+      <c r="Y20" s="10">
+        <f t="shared" ref="Y20" si="24">O20+T20</f>
+        <v>3000</v>
+      </c>
+      <c r="Z20" s="10">
+        <f t="shared" ref="Z20" si="25">P20+U20</f>
+        <v>1200</v>
+      </c>
+      <c r="AA20" s="10">
+        <f t="shared" ref="AA20" si="26">Q20+V20</f>
+        <v>600</v>
+      </c>
+      <c r="AB20" s="10">
+        <f t="shared" ref="AB20" si="27">R20+W20</f>
+        <v>1200</v>
+      </c>
+      <c r="AD20" s="14">
+        <f t="shared" si="13"/>
+        <v>7170</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f>MAX(C4:C20)</f>
         <v>45</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <f>MAX(D4:D20)</f>
         <v>55</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4">
-        <f>MAX(F4:F20)</f>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="3">
+        <f>MAX(N4:N20)</f>
         <v>1845</v>
       </c>
-      <c r="G22" s="4">
-        <f t="shared" ref="G22:H22" si="4">MAX(G4:G20)</f>
+      <c r="O22" s="3">
+        <f t="shared" ref="O22:Q22" si="28">MAX(O4:O20)</f>
+        <v>2400</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="28"/>
+        <v>1800</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="28"/>
+        <v>1260</v>
+      </c>
+      <c r="R22" s="3">
+        <f>MAX(R4:R20)</f>
+        <v>1800</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" ref="S22:U22" si="29">MAX(S4:S20)</f>
         <v>135</v>
       </c>
-      <c r="H22" s="4">
-        <f t="shared" si="4"/>
+      <c r="T22" s="3">
+        <f t="shared" si="29"/>
+        <v>600</v>
+      </c>
+      <c r="U22" s="3">
+        <f t="shared" si="29"/>
+        <v>122.5</v>
+      </c>
+      <c r="V22" s="3">
+        <f>MAX(V4:V20)</f>
+        <v>10.1</v>
+      </c>
+      <c r="W22" s="3">
+        <f>MAX(W4:W20)</f>
+        <v>81</v>
+      </c>
+      <c r="X22" s="3">
+        <f t="shared" ref="X22:Z22" si="30">MAX(X4:X20)</f>
         <v>1867.5</v>
       </c>
+      <c r="Y22" s="3">
+        <f t="shared" si="30"/>
+        <v>3000</v>
+      </c>
+      <c r="Z22" s="3">
+        <f t="shared" si="30"/>
+        <v>1800</v>
+      </c>
+      <c r="AA22" s="3">
+        <f>MAX(AA4:AA20)</f>
+        <v>1260</v>
+      </c>
+      <c r="AB22" s="3">
+        <f t="shared" ref="AB22:AD22" si="31">MAX(AB4:AB20)</f>
+        <v>1800</v>
+      </c>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3">
+        <f t="shared" ref="AD22" si="32">MAX(AD4:AD20)</f>
+        <v>8662.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f>MIN(C4:C20)</f>
         <v>6.9</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <f>MIN(D4:D20)</f>
         <v>29</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="4">
-        <f>MIN(F4:F20)</f>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="3">
+        <f>MIN(N4:N20)</f>
         <v>269.10000000000002</v>
       </c>
-      <c r="G23" s="4">
-        <f t="shared" ref="G23:H23" si="5">MIN(G4:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="5"/>
+      <c r="O23" s="3">
+        <f t="shared" ref="O23:Q23" si="33">MIN(O4:O20)</f>
+        <v>358.8</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="33"/>
+        <v>289.8</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="33"/>
+        <v>276</v>
+      </c>
+      <c r="R23" s="3">
+        <f>MIN(R4:R20)</f>
+        <v>276</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" ref="S23:U23" si="34">MIN(S4:S20)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <f>MIN(V4:V20)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <f>MIN(W4:W20)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <f t="shared" ref="X23:Z23" si="35">MIN(X4:X20)</f>
         <v>269.10000000000002</v>
       </c>
+      <c r="Y23" s="3">
+        <f t="shared" si="35"/>
+        <v>375.58</v>
+      </c>
+      <c r="Z23" s="3">
+        <f t="shared" si="35"/>
+        <v>296.7</v>
+      </c>
+      <c r="AA23" s="3">
+        <f>MIN(AA4:AA20)</f>
+        <v>276</v>
+      </c>
+      <c r="AB23" s="3">
+        <f t="shared" ref="AB23:AD23" si="36">MIN(AB4:AB20)</f>
+        <v>276</v>
+      </c>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3">
+        <f t="shared" ref="AD23" si="37">MIN(AD4:AD20)</f>
+        <v>1518</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f>AVERAGE(C4:C20)</f>
         <v>16.484705882352941</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <f>AVERAGE(D4:D20)</f>
         <v>40.882352941176471</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="4">
-        <f>AVERAGE(F4:F20)</f>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="3">
+        <f>AVERAGE(N4:N20)</f>
         <v>678.36470588235295</v>
       </c>
-      <c r="G24" s="4">
-        <f t="shared" ref="G24:H24" si="6">AVERAGE(G4:G20)</f>
+      <c r="O24" s="3">
+        <f t="shared" ref="O24:Q24" si="38">AVERAGE(O4:O20)</f>
+        <v>769.88941176470587</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="38"/>
+        <v>682.82117647058828</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="38"/>
+        <v>546.64941176470597</v>
+      </c>
+      <c r="R24" s="3">
+        <f>AVERAGE(R4:R20)</f>
+        <v>609.86470588235295</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" ref="S24:U24" si="39">AVERAGE(S4:S20)</f>
         <v>18.932352941176472</v>
       </c>
-      <c r="H24" s="4">
-        <f t="shared" si="6"/>
+      <c r="T24" s="3">
+        <f t="shared" si="39"/>
+        <v>64.515294117647059</v>
+      </c>
+      <c r="U24" s="3">
+        <f t="shared" si="39"/>
+        <v>17.664705882352941</v>
+      </c>
+      <c r="V24" s="3">
+        <f>AVERAGE(V4:V20)</f>
+        <v>1.371764705882353</v>
+      </c>
+      <c r="W24" s="3">
+        <f>AVERAGE(W4:W20)</f>
+        <v>8.7470588235294109</v>
+      </c>
+      <c r="X24" s="3">
+        <f t="shared" ref="X24:Z24" si="40">AVERAGE(X4:X20)</f>
         <v>697.29705882352937</v>
       </c>
+      <c r="Y24" s="3">
+        <f t="shared" si="40"/>
+        <v>834.40470588235303</v>
+      </c>
+      <c r="Z24" s="3">
+        <f t="shared" si="40"/>
+        <v>700.48588235294119</v>
+      </c>
+      <c r="AA24" s="3">
+        <f>AVERAGE(AA4:AA20)</f>
+        <v>548.02117647058822</v>
+      </c>
+      <c r="AB24" s="3">
+        <f t="shared" ref="AB24:AD24" si="41">AVERAGE(AB4:AB20)</f>
+        <v>618.61176470588248</v>
+      </c>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3">
+        <f t="shared" ref="AD24" si="42">AVERAGE(AD4:AD20)</f>
+        <v>3398.8205882352941</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1168,17 +2863,69 @@
         <f>SUM(D4:D20)</f>
         <v>695</v>
       </c>
-      <c r="F25" s="4">
-        <f>SUM(F4:F20)</f>
+      <c r="N25" s="3">
+        <f t="shared" ref="E25:AB25" si="43">SUM(N4:N20)</f>
         <v>11532.2</v>
       </c>
-      <c r="G25" s="4">
-        <f t="shared" ref="G25:H25" si="7">SUM(G4:G20)</f>
+      <c r="O25" s="3">
+        <f t="shared" si="43"/>
+        <v>13088.119999999999</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="43"/>
+        <v>11607.960000000001</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="43"/>
+        <v>9293.0400000000009</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="43"/>
+        <v>10367.700000000001</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="43"/>
         <v>321.85000000000002</v>
       </c>
-      <c r="H25" s="4">
-        <f t="shared" si="7"/>
+      <c r="T25" s="3">
+        <f t="shared" si="43"/>
+        <v>1096.76</v>
+      </c>
+      <c r="U25" s="3">
+        <f t="shared" si="43"/>
+        <v>300.3</v>
+      </c>
+      <c r="V25" s="3">
+        <f t="shared" si="43"/>
+        <v>23.32</v>
+      </c>
+      <c r="W25" s="3">
+        <f t="shared" si="43"/>
+        <v>148.69999999999999</v>
+      </c>
+      <c r="X25" s="3">
+        <f t="shared" si="43"/>
         <v>11854.05</v>
+      </c>
+      <c r="Y25" s="3">
+        <f t="shared" si="43"/>
+        <v>14184.880000000001</v>
+      </c>
+      <c r="Z25" s="3">
+        <f t="shared" si="43"/>
+        <v>11908.26</v>
+      </c>
+      <c r="AA25" s="3">
+        <f t="shared" si="43"/>
+        <v>9316.36</v>
+      </c>
+      <c r="AB25" s="3">
+        <f t="shared" si="43"/>
+        <v>10516.400000000001</v>
+      </c>
+      <c r="AD25" s="3">
+        <f t="shared" ref="AD25" si="44">SUM(AD4:AD20)</f>
+        <v>57779.95</v>
       </c>
     </row>
   </sheetData>

--- a/book1.xlsx
+++ b/book1.xlsx
@@ -566,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -2672,7 +2672,7 @@
         <v>1260</v>
       </c>
       <c r="AB22" s="3">
-        <f t="shared" ref="AB22:AD22" si="31">MAX(AB4:AB20)</f>
+        <f t="shared" ref="AB22" si="31">MAX(AB4:AB20)</f>
         <v>1800</v>
       </c>
       <c r="AC22" s="3"/>
@@ -2759,7 +2759,7 @@
         <v>276</v>
       </c>
       <c r="AB23" s="3">
-        <f t="shared" ref="AB23:AD23" si="36">MIN(AB4:AB20)</f>
+        <f t="shared" ref="AB23" si="36">MIN(AB4:AB20)</f>
         <v>276</v>
       </c>
       <c r="AC23" s="3"/>
@@ -2846,7 +2846,7 @@
         <v>548.02117647058822</v>
       </c>
       <c r="AB24" s="3">
-        <f t="shared" ref="AB24:AD24" si="41">AVERAGE(AB4:AB20)</f>
+        <f t="shared" ref="AB24" si="41">AVERAGE(AB4:AB20)</f>
         <v>618.61176470588248</v>
       </c>
       <c r="AC24" s="3"/>
@@ -2864,7 +2864,7 @@
         <v>695</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" ref="E25:AB25" si="43">SUM(N4:N20)</f>
+        <f t="shared" ref="N25:AB25" si="43">SUM(N4:N20)</f>
         <v>11532.2</v>
       </c>
       <c r="O25" s="3">
